--- a/test_dataset/01_raw/DatasetInformation.xlsx
+++ b/test_dataset/01_raw/DatasetInformation.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Image1</t>
+    <t xml:space="preserve">Image1.tif</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -40,13 +40,13 @@
     <t xml:space="preserve">good</t>
   </si>
   <si>
-    <t xml:space="preserve">Image2</t>
+    <t xml:space="preserve">Image2.tif</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">Image3</t>
+    <t xml:space="preserve">Image3.tif</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -162,7 +162,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
